--- a/software/3D-CMCC-Forest-Model/input/ITRenon/data/Eddy_vs_Model.xlsx
+++ b/software/3D-CMCC-Forest-Model/input/ITRenon/data/Eddy_vs_Model.xlsx
@@ -239,6 +239,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1361,6 +1364,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2483,8 +2489,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="2"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -3592,32 +3602,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="174543616"/>
-        <c:axId val="174545920"/>
+        <c:axId val="99086720"/>
+        <c:axId val="99088256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174543616"/>
+        <c:axId val="99086720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174545920"/>
+        <c:crossAx val="99088256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174545920"/>
+        <c:axId val="99088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174543616"/>
+        <c:crossAx val="99086720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3630,7 +3639,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3660,7 +3669,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.27451049868766425"/>
+                  <c:x val="0.27451049868766436"/>
                   <c:y val="-0.16611220472440946"/>
                 </c:manualLayout>
               </c:layout>
@@ -5876,23 +5885,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="177934336"/>
-        <c:axId val="177935872"/>
+        <c:axId val="99924224"/>
+        <c:axId val="99930112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177934336"/>
+        <c:axId val="99924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177935872"/>
+        <c:crossAx val="99930112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177935872"/>
+        <c:axId val="99930112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5900,7 +5909,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177934336"/>
+        <c:crossAx val="99924224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5913,7 +5922,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
